--- a/biology/Biologie cellulaire et moléculaire/Lécithine-cholestérol_acyltransférase/Lécithine-cholestérol_acyltransférase.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Lécithine-cholestérol_acyltransférase/Lécithine-cholestérol_acyltransférase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%C3%A9cithine-cholest%C3%A9rol_acyltransf%C3%A9rase</t>
+          <t>Lécithine-cholestérol_acyltransférase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La lécithine-cholestérol acyltransférase (LCAT) est une enzyme de type acyltransférase. Elle permet le transfert d'un acide gras à partir de la lécithine (phosphatidylcholine) sur le cholestérol dans le cadre de la formation des stérides. Son gène est LCAT situé sur le chromosome 16 humain.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%C3%A9cithine-cholest%C3%A9rol_acyltransf%C3%A9rase</t>
+          <t>Lécithine-cholestérol_acyltransférase</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Rôle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Synthétisée dans le foie, elle se localise sur les HDL notamment les pré-bêta HDL et ne peut fonctionner qu'en présence d'un cofacteur qui est l'ApoA1. 
 Elle va utiliser les phospholipides pour estérifier le cholestérol libre afin de donner une lipophospholipide (LPL), il s'agit d'une transestérification plasmatique du cholestérol.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%C3%A9cithine-cholest%C3%A9rol_acyltransf%C3%A9rase</t>
+          <t>Lécithine-cholestérol_acyltransférase</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il existe plusieurs mutations du gène LCAT entraînant une inactivation plus ou moins complète de l'enzyme[5], avec un taux sanguin abaissé en HDL-cholestérol, et des tableaux plus ou moins sévères, souvent caractérisés par un athérome précoce[6] mais pas toujours[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe plusieurs mutations du gène LCAT entraînant une inactivation plus ou moins complète de l'enzyme, avec un taux sanguin abaissé en HDL-cholestérol, et des tableaux plus ou moins sévères, souvent caractérisés par un athérome précoce mais pas toujours.
 </t>
         </is>
       </c>
